--- a/500all/speech_level/speeches_CHRG-114hhrg97570.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97570.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412655</t>
   </si>
   <si>
-    <t>Brian Babin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Babin. The Subommittee on Space will come to order. Without objection, the Chair is authorized to declare recesses of the Subcommittee at any time. Good morning. Welcome to today's hearing titled The International Space Station: Addressing Operational Challenges. In front of you are packets containing the written testimony, biographies, and Truth in Testimony disclosures for today's witnesses. I recognize myself for five minutes for an opening statement.    Good morning. I'd like to welcome everyone to our hearing today, and I want to thank our witnesses for taking time to appear before our Committee. Since 2013, the ISS program has experienced a number of challenges. As a can-do nation, America has always been committed to identifying challenges, addressing them, and advancing to reach out and reach our goal and destiny. We have that same commitment with the ISS. During this time, astronauts have experienced water leaks in their suits three times, with one incident occurring during a spacewalk. On April the 26th, 2013, an unmanned Russian Progress cargo vehicle damaged a laser radar reflector when docking with the ISS. On January the 14th, 2015, a false alarm of an ammonia leak caused the crew to retreat into the Russian segment. On October 28th, 2014, an Orbital Sciences unmanned cargo launch failed just after launch. On April the 28th, 2015, a separate Russian Progress cargo vehicle failed to reach the ISS. On June the 7th, 2015, a planned re-boost of the ISS using a docked Progress vehicle failed but eventually was successful after troubleshooting. On June the 10th, 2015, a visiting Soyuz vehicle unexpectedly fired its engines without being commanded. Most recently, on June the 28th, 2015, a SpaceX unmanned cargo launch failed as well.    All of these incidents highlight the challenges of operating in space, and they remind us that NASA's contractors, engineers, and astronauts must be ever vigilant. These events have challenged ISS operations, but the fact that the program was able to effectively respond to these set-backs is a testament to NASA, the ISS partners, and the contractors. We do not know the root causes of some of the accidents yet, but once we have more information, we will be better suited to review those individual events. In the meantime, this hearing allows us to evaluate the operational status of the ISS, review efforts to utilize the unique asset, and assess the prospects for future operations.    The ISS is one of the most complex and expensive man-made objects ever built. The American taxpayers currently invest approximately $3 billion dollars per year in this laboratory. We must ensure that every dollar is spent effectively and efficiently. The ISS offers a unique microgravity environment for scientists and engineers to utilize. NASA recently released its Benefits to Humanity publication this week detailing the many benefits that ISS provides back to our lives here on Earth. From advances in our understanding of human health and performance to our use of new materials to the utilization of robotics and satellites, the benefits we receive from ISS are many and diverse and remarkable.    In addition to the benefits here on Earth the ISS offers the conditions necessary to prepare and develop critical technologies for deep space and long-duration human spaceflight missions. Successive NASA authorizations direct the administration to utilize the ISS for this purpose. The Human Research Program and Advanced Exploration Systems Program at NASA are on the cutting edge of developing the systems we need to send humans ever deeper into the Solar System than ever before. Right now, Captain Scott Kelly is on day 104 of his year-long mission to study the effects of long-duration human spaceflight.    In addition to the utilization efforts of NASA's research programs, the NASA Authorization Act of 2005 designated part of the ISS as a National Lab and the NASA Authorization Act of 2010 directed the administration to sign a cooperative agreement with a non-profit to manage it. NASA selected the Center for the Advancement of Science in Space, or CASIS, to lead this effort. The Government Accountability Office noted in a recent report that CASIS had made great strides in fulfilling the mandate under the law but that more work needed to be done to ensure that measurable progress was being made in a quantifiable manner. I hope to hear from NASA today that the agency is making progress towards answering this recommendation from GAO.    As we keep an eye on the present operation and utilization of the ISS, we must also look to the future. Last year the administration announced support for the extension of the ISS program from 2020 to 2024. At present, federal law limits the life of the ISS to 2020. Absent action from Congress to extend it, the administration would be required to begin closeout of the program.    There are many questions about the request for this extension. The bipartisan, House-passed NASA Authorization Act of 2015 requires the administration to provide a report to Congress on efforts by the administration to utilize the ISS and how to quantify benefits back to the nation for the required investment for this extension. It also requires the Administration to develop a government-wide utilization plan for the ISS to ensure that every minute the facility is in orbit we are doing what we can to get the most out of it. These reports are critical for Congress to understand the issues that inform whether to extend the ISS.    This Committee has a responsibility to ensure that the American taxpayers are getting all that they can from every dollar they send to the federal government. I believe this investment is worthwhile and that the benefits far outweigh the cost. Support for the ISS and its operations and utilization is not a partisan issue. It is an American issue, and I look forward to working with my friends on the other side of the aisle and our partners in the space industry to understand how we can all meet the operational challenges facing the ISS program.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412263</t>
   </si>
   <si>
-    <t>Donna F. Edwards</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Edwards. Thank you very much, Mr. Chairman, and good morning. Welcome to our distinguished panel of witnesses. I appreciate holding this hearing now, The International Space Station: Addressing Operational Challenges, and as I listened to the Chairman, I'm reminded that the challenges that NASA faces and the agency faces in operating the International Space Station, I would be more concerned if we weren't able to overcome some of those challenges, and I think it's a credit to the crew and the partners that that is true.    About a year ago, I and the members of our Committee sat in this room, looked on the screen there, and had the opportunity to communicate with our NASA crew that was aboard the International Space Station, including NASA astronaut Rick Wiseman who's from Maryland. I would note that I promised him crab cakes, and unfortunately one of those accidents that the Chairman referred to destroyed my crab cake delivery. But Rick Wiseman visited with me in my office just a couple of weeks ago and we made okay on that.    What happens when you connect real-time with our astronauts who are living, working, and carrying out research in this amazing laboratory that's orbiting 250 miles above us every 90 minutes is really quite an inspiration.    Thanks to NASA, the crews aboard the ISS, and so many school children have also had the opportunity to ask questions and learn about human spaceflight through similar downlink events that we experienced here in this room. Yet, in the thrill of seeing and hearing those who inhabit our on-orbit laboratory, we can sometimes forget just how difficult, demanding, and risky it is to maintain and operate the International Space Station, because sometimes we think it's just ordinary, and it turns out that it's rather extraordinary. Orbital debris, malfunctions to key systems both internal and external to the ISS, and human health hazards pose significant risks to the ISS facility and its crew. The unfortunate loss of the SpaceX-7 cargo resupply mission less than two weeks ago, along with the earlier losses of the Russian Progress and Orbital ATK cargo missions over the past eight months, are again stark reminders of the risks and challenges that NASA and its partners have to face.    The successful management of these risks for more than 15 years is a testament to NASA and its industry and to international partners.    I am confident that SpaceX, Orbital ATK, in collaboration with the FAA and NASA, will identify and resolve the problems that led to the launch failures and will resume cargo resupply to the ISS as soon as it's safe to do so. And in fact, the ISS actually has been resupplied through its partners.    Mr. Chairman, we don't have any time to spare. The ISS is a temporary facility. It's currently authorized for operations as you've described through 2020, and given that the operations cost about $3 billion in taxpayer dollars every year, a cost that is actually projected to increase, coupled with the challenges involved in sustaining operations, we really need to ensure that our vision for the ISS is clear and our goals and objectives for using this unique facility are aligned with that vision.    I'm pleased that the number of ISS users has actually grown. We've had concerns about that raised here in this Committee. In addition to NASA researchers and NASA-supported academic researchers, the ISS National Laboratory management entity, CASIS, has drawn new commercial users including pharmaceutical companies to the ISS.    However, while the range of ISS uses is expanding, the resources to support those activities are not. Funding for the ISS research represents a mere 12 percent of the overall ISS budget. In addition, constraints on cargo transportation to the International Space Station, as well as available power and precious crew time, limit what research can be accomplished at the Station.    And in that regard, I know that many of us want to understand the implications of cargo resupply interruptions on planned ISS research, crew operations, and the sustainability of the Station.    In addition, Mr. Chairman, there's critical work to be done on the ISS in the areas of human health research and technology development that needs to be carried out if we are going to make progress toward the long-term goal of sending humans to Mars.    In January 2014 the Obama Administration proposed to extend ISS operations until at least the year 2024. The Administration has three rationales for the extension: to complete ISS research that supports long-duration human missions beyond low-Earth orbit; to garner societal benefits from ISS research, some of which we see here; and to give NASA and private partners more time to transition to commercial cargo and crew, allowing NASA to focus on human exploration of deep space.    Today's hearing provides us the opportunity to examine those rationales in the context of the cost and risks that NASA and its international partners will face in sustaining the ISS for that length of time.    So Mr. Chairman, we have a lot to discuss this morning, and I want to thank our witnesses again for being here and with that I yield back.</t>
   </si>
   <si>
@@ -79,45 +73,30 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Gerstenmaier</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gerstenmaier. Thank you, Mr. Chairman, and thank you for the opportunity to testify on behalf of myself and the men and women that work on the International Space Station. This is one of the most talented and dedicated international teams in the world. The ISS is an amazing research facility. Today on the ISS during this expedition, there are 329 research investigations in progress. These span topics from human research into how the human body performs in microgravity, basic biology, and biotechnology, physical science, Earth and space science, technology development, and education. There's never been this scope of research performed on a continuous basis in space.    We are also in the midst of a one-year crew expedition. This mission will give us detailed information into the human adaptation to the space environment with mission durations approximately equal to the Mars transit time. We will also get a unique chance through the twins study to see how the human genome changes when exposed to microgravity. We have kept a continual crew presence on the ISS for almost 15 years. Eighty-three countries from around the world have used the ISS for research. Further, private companies through the National Laboratory and the Center for the Advancement of Science and Space have used the ISS.    This week in Boston there was an ISS users conference. This is an exciting time as many new researchers are beginning to see the advantages of space-based research to augment their terrestrial investigations. The growth of non-NASA research is exciting and shows that there's a generic interest in using the unique properties of space to investigate basic research opportunities typically only done on the Earth.    Space provides a unique window into any physical process that is affected by gravity. Further, the human body reacts in space with many conditions that mimic conditions facing the elderly: bone loss, muscle wasting, immune system degradation, and balance problems. Using animal models, unique insight, and potential new treatments for the elderly can be developed based on Space Station research.    As the Chairman stated earlier, operating under frontier of space is not easy. In the past nine months, three independent cargo vehicles were lost on the way to the ISS. This graphically shows the difficulty of living and operating in space. The lost vehicles have different designs, different heritages, different manufacturing, different build processes, and utilize different ascent trajectories. The failure of these three systems shows the difficulty of launching and operating in space.    We often think that ISS is only 250 miles away and that the journey is easy. This is not true. We are essentially operating these systems at the edge of our engineering capability. We also often think that if only we provide more insight and oversight, we can lower the risk of cargo delivery. Unfortunately, the demands required to escape Earth's gravity expose us to the same level of risk no matter how much insight we add. But the insight can give us insight and help us understand the designs to make sure that we can end up with better designs.    The right level of insight can reduce and find design errors. However, too much insight can distract the teams from working on and improving design. It's amazing that even after these three failures, the basic ISS operations were not impacted. This is attributed to the teams that manage and operate the ISS. They learned and are implementing the hard lessons from the Columbia tragedy where the ISS had to operate without the shuttle for several years. The consumables management processes and logistics resupply techniques learned are proving their worth. However, these failures are not without consequences. Several of the agency performance goals associated with research and cargo flights will not be met. The ISS program is reducing consumables margins on ISS to favor research. This will not be enough to recover the research impacts. The delay in the Soyuz crew flight, which was required to allow the teams to understand the Progress failure, required the ISS to operate with three crew for approximately three weeks longer than planned and will impact research crew hours. The impact of the loss also had real implications to students and researchers who lost cargo on the Orbital ATK-Cygnus flight only to lose the replacement and return-to-flight hardware again on the SpaceX flight. They suffered a double loss. The loss of the international docking adapter can be accommodated schedule-wise without impacting the crew program but will result in a dollar loss to ISS.    ISS is a phenomenal resource for the nation. The research being done on ISS can be done no place else. ISS can serve as an innovation accelerator for private entrepreneurs, help NASA prepare for journeys beyond low-Earth orbit, and benefits directly people on the Earth. Congressional support for ISS operations through at least 2024 would be a positive sign to the international partners and future users of ISS. Operating on the frontier is not easy, and we need to not get complacent and think ISS operations are routine or easy. They are not. The ISS team has done a great job of managing in a technically demanding environment. The ISS team will continue to look for ways to improve. The ISS teams need to be given flexibility to manage, and others need to understand the benefits of dissimilar redundancy and how it can be used to provide robustness. The benefits of ISS will take longer to be realized than most can envision, but the benefits of ISS will exceed the expectations of all involved.    I would also like to thank the Committee for their support to human spaceflight, especially the authorization activity associated with Commercial Crew, SLS, Orion, and ISS. I look forward to your questions. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Babin. Yes, sir. Thank you, Mr. Gerstenmaier. I'll now recognize Mr. Elbon for five minutes to present his testimony.</t>
   </si>
   <si>
-    <t>Elbon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Elbon. Chairman Babin, Ranking Member Edwards, and Members of the Subcommittee, on behalf of The Boeing Company, thank you for the opportunity to testify today to provide an update on Boeing's role in the International Space Station. And Mr. Chairman, as one of your constituents, congratulations on your selection to lead this important Committee.    Boeing is extremely proud to have supported NASA in the design, integration and assembly of the ISS. As NASA's prime contractor, Boeing delivered the U.S. elements of the ISS and provided system integration for the stage-by-stage assembly on orbit of all U.S. and international elements. We continue in the ISS sustainment role today.    On November 2, the world will celebrate 15 years of continuous presence in space, human presence in space, with international crews living and working aboard the ISS. At a time when many decry a gap in America's space program as we transition from the Space Shuttle to commercial transportation, we who know ISS know that America and our partner nations are making advances in space every day.    The International Space Station has been recognized as the largest, most complex international scientific and engineering project in history and the world's largest endeavor in space to date. Ongoing improvements are making ISS even better.    The Station brought together hardware and software from 16 countries around the globe and 37 states and more than 10,000 suppliers in our country. About the size of an American football field, the ISS is larger than a six bedroom house and has the internal pressurized volume of a 747.    ISS is an engineering marvel, a beacon for international cooperation, and a shining example of what can be achieved through strong leadership and unity of purpose on behalf of humankind.    As NASA's contractor for sustaining engineering of the ISS, Boeing is responsible for maintaining the Station and ensuring the full availability of the unique research laboratory for NASA, international partners, other U.S. Government agencies and private companies. In performing this role, we continue to work with NASA to reduce the costs of sustaining the International Space Station.    Over the past ten years, we have reduced the cost of our sustainment role by more than 30 percent. These savings has enabled NASA to fund ISS improvements such as the NASA Docking System, the critical component supporting the increase in the number of commercial vehicles visiting the Station. These improvements help to keep ISS at peak efficiency today and provide a basis for continuing strong performance well into the future. With NASA, we recently completed a technical assessment of the useable life of major ISS hardware components. Our study indicates that the Station will be operable at least through 2028. Long-term viability of the Station is an important factor in continuing to attract researchers, who invest considerable time in preparing their experiments for operation in space.    The continuing on-orbit reliability of ISS and the improvements made to further enhance research capabilities are a boon to maximizing facility utilization. Our work on ISS enables many benefits and improvements both to enable continuing human space exploration and to improve the quality of life here on Earth.    ISS continues to be used for developing multiple technologies to support deep space exploration. NASA is developing highly reliable life support systems to address needs for future exploration habitation systems. The ISS is a test bed for learning how the body reacts to prolonged weightlessness and allows us to develop countermeasures now.    And we are learning self-sustainment skills, such as growing food in space and recycling water. All of these things are important to learn and understand before we explore farther into our solar system.    Research on ISS has led to numerous improvements on Earth, from the medical field, to Earth observations, to providing clean water in underdeveloped countries, to how we diagnose and treat patients in remote areas.    Over the past several years, I've had opportunity to interact with leaders in countries that are not engaged in the ISS or do not have a space program. Without exception, in every one of these conversations about space exploration, these leaders express a strong desire to be involved in space, and more specifically, the International Space Station. They see the value of ISS: to inspire their youth to pursue STEM education, to create economy-expanding high technology industries, and to provide a significant source of national pride. This fresh perspective from leaders outside Station international partnership recognizing the tremendous value of ISS serves as a strong reminder to U.S. leaders and to all who are charged with the care of this national asset and global resource. We must never take what we have in ISS for granted. We must ensure that the International Space Station is well-funded, meticulously maintained and operated, and fully utilized for meaningful, high-value research.    Thank you, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Babin. Thank you, Mr. Elbon. I now recognize Mr. Martin for five minutes to present his testimony.</t>
   </si>
   <si>
-    <t>Martin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Martin. Thank you for inviting us to be part of the discussion about NASA's challenges in operating and maximizing research on the International Space Station, a very timely topic in light of the loss of three cargo supply flights over the past eight months.    The Office of Inspector General has issued four reports related to the topic of today's hearing during the past two years, including reviews that examine NASA's plans to extend Station operations until 2024 and its contracts with private companies to fly cargo and eventually crew to Station. We have five more reviews related to this topic under way, including an examination of October's cargo resupply failure, NASA's efforts to manage health and behavioral risk for extended space exploration, and challenges to international cooperation in space.    Our audit from last September of NASA's plans to extend the ISS reported that the agency had identified no major obstacles to continued operations through 2024. However, we found NASA must address a series of technical challenges, including ensuring adequate power generation in light of degradation of the Station's solar arrays as well as a limited ability to transport large replacement parts to Station.    While NASA officials estimate an annual ISS budget of between $3 and $4 billion through 2024, we anticipate the cost may be higher. First, much of the projected increase is attributable to higher transportation costs, and we found NASA's estimates for cargo and crew transportation optimistic.    Second, most of the agency's international partners have yet to commit to Station operations beyond 2020, and a decision by one or more not to participate could drive up costs for NASA. As noted in our report, the number one operational risk for the ISS program is ensuring the ability to deliver supplies and astronauts to Station. While NASA is working with two commercial cargo providers for redundancy, flights by Orbital and SpaceX are now on hold pending the outcome of accident investigations and approvals from the FAA and NASA.    In addition to the loss of important supplies, the failed cargo flights have affected NASA research aboard Station in at least three ways: number one, by reducing available crew time due to a temporary delay in returning the Station's crew complement to six astronauts; number two, by increasing cost to replace the lost research; and number three, by delaying return of experiments due to the suspension of flights by SpaceX, the only company capable of bringing cargo back to Earth.    Because NASA uses the ISS as a research platform to study a variety of risks associated with human travel and long-term habitation in space, it is an important part of its plans to send humans beyond low-Earth orbit. As we have reported in the past, utilization of the ISS for research has increased over the years, but several factors continue to limit its full potential. For example, until a seventh astronaut is brought aboard the Station, NASA will not be in a position to maximize crew time devoted to research. In addition, on-board crew will soon devote substantial time to reconfiguring the ISS to accommodate the commercial vehicles NASA hopes will transport astronauts beginning in 2017. To that point, late last year, NASA awarded $6.8 billion in contracts to Boeing and SpaceX to complete development of their spaceflight systems for crew. But NASA's Commercial Crew Program faces several significant hurdles, including unstable funding, the need to provide timely requirements and certification guidance to contractors, and coordination issues with other federal agencies. Given its importance, the OIG recently initiated a follow-up audit to review the status of NASA's Commercial Crew Program.    And that concludes my prepared remarks. Thank you, sir.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Babin. Thank you, Mr. Martin. And I now recognize Ms. Oakley for five minutes to present her testimony.</t>
   </si>
   <si>
-    <t>Oakley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Oakley. Good morning, Chairman Babin, Ranking Member Edwards, and Ranking Member Johnson and Members of the Subcommittee. Thank you for inviting me here today to discuss GAO's work on NASA's management of the International Space Station.    As you know, the United States has spent tens of billions of dollars to develop, assemble, and operate the Space Station over the last two decades. The United States could spend billions more in coming years to further capitalize on the investment, given the potential extension of operations to 2024. Today I will discuss three areas: First, NASA's budget for ISS; second, some challenges that could affect increased use of ISS; and finally, steps that NASA and CASIS could take to better document and assess progress in this regard.    NASA continues to make a significant investment in ISS each year. This investment is projected to increase over the next five years mainly because the ISS program will begin to fund commercial crew flights. In 2020, transportation costs will be over 55 percent of the projected $4 billion ISS budget. Unlike transportation costs, costs to operate and conduct research on ISS are projected to remain relatively stable through 2020. NASA officials have indicated that the funding priorities for ISS are crew safety and transportation, maintaining the facility, and finally research. As a result, any increases to transportation costs or operations costs could diminish available funding for research. Furthermore, the potential increases to the ISS budget as a result of the planned extension to 2024 are currently unknown.    Second, NASA and CASIS face several challenges that could negatively affect their efforts to increase use of ISS for science including cargo transportation failures and delays, limited progress in raising additional funding for research, and increased demand for crew time and facilities.    Recent mishaps of the commercial cargo vehicles have had a direct impact on both CASIS and NASA efforts to increase research on ISS. For example, launch failures and delays have already resulted in the loss of CASIS-sponsored research and increased costs by almost $500,000, and let's not forget your crab cakes, Ms. Edwards. Furthermore, additional increases are likely as a result of the most recent failure.    For CASIS, absorbing these increases has and could continue to be challenging because it has thus far made limited progress raising additional funds for science from external sources. For example, in 2014, CASIS had only received a little over $9,000 in contributions. However, CASIS has seen an increase in commitments from external donors. Specifically, in 2014, it received commitments of over $12 million.    CASIS also faces challenges with competition for available crew time and a heavy demand for key facilities which limits the amount and types of experiments that CASIS can bring to ISS. Crew time is already allocated at or over 100 percent. To address this challenge, NASA and CASIS are dependent on commercial crew providers delivering promised capabilities as planned in 2017. With these capabilities, NASA will be able to add a crew member to ISS who will devote most of his or her time to research, effectively doubling research time.    However, many technical challenges and NASA's ability to fund the Commercial Crew Program could delay these efforts. Finally, even if NASA and CASIS can effectively navigate these challenges, demonstrating a return on investment is very difficult in scientific research and can oftentimes take many years.    In the short term, it is essential that CASIS continues to make progress promoting research and achieving its goal of increased use of ISS.    We reported in April that NASA and CASIS could do more to objectively define, assess, and report on such progress, for example, by assigning measurable targets or goals to its annual performance metrics. NASA and CASIS concurred and agreed to take action in response.    In conclusion, potential extension of ISS to 2024 will likely require significant continued investments. As a result, ensuring that ISS capabilities are being used to support significant scientific gains is critical. Furthermore, demonstrating and communicating the return on investment could help support NASA and CASIS in achieving their shared goal of developing sustained commercial markets in low-Earth orbit.    Chairman Babin, Ranking Member Edwards, and Members of the Subcommittee, this concludes my prepared remarks. I'm happy to take any questions that you have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Babin. Thank you, Ms. Oakley. Now I'd like to recognize Dr. Pawelczyk for five minutes to present his testimony.</t>
   </si>
   <si>
-    <t>Pawelczyk</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Pawelczyk. Thank you, Mr. Chairman, Members of the Subcommittee, good morning to you. I thank you for the opportunity to discuss the status of research using the International Space Station. It's the only platform of its kind, and it is absolutely essential to NASA's exploration goals.    To prepare for this hearing, you asked four specific questions, and I would like to briefly address each in the time allotted. You asked about opportunities and challenges. Well, the Augustine Commission emphasized three unique stressors that future astronauts will face: prolonged exposure to solar and galactic radiation; prolonged periods of exposure to microgravity; and confinement in close, relatively austere quarters. All of these stressors are present in the ISS environment. Martian operations add more stressors: a dusty, dim, environment and a gravitational field that is a little more than a third of our own. Unless we improve our centrifuge capabilities on the ISS--they are limited at the moment--we risk sending humans to Mars with little or no knowledge of how mammalian biology responds over years in a gravitational field less than Earth's.    Two challenges dominate the landscape, limited crew time and limited access to the ISS. We can reasonably anticipate that competition for time will become worse as the facility ages and demands to perform necessary maintenance become more acute.    Access is really a matter of competing programs. CASIS-sponsored research and peer-reviewed NASA-sponsored research vie for scarce resources. Better coordination between the two entities is needed.    You asked about critical areas of research. The National Research Council's Life and Physical Sciences Decadal Survey, which was completed in 2011 at Congress' request, summarized and sequenced 65 high-priority research tasks. Furthermore, the decadal study created two notional research plans, one with a goal of rebuilding a research enterprise and the other with a goal of a human mission to Mars. More about those goals in just a moment.    You asked about priorities. Well, prioritizing ISS research isn't a new concept. In fact, we've been working on that problem for close to 15 years. But the key question for prioritization isn't scientific, it's programmatic and it's something like this: Shall discovery research or fundamental research or translational research take precedence in the mature years of the ISS research program? The answer to that question has to be provided by government. Once those programmatic priorities are sequenced, can we prioritize the research? Absolutely. The LPS Decadal Survey provided a very detailed scheme and used eight unique criteria to do so.    The process for operations, you were curious about that, is well understood. CASIS receives its 50-percent allocation followed by human research, then technology demonstrations, and what resources remain are devoted to biology, physical sciences, and the Science Mission Directorate.    You asked about implications for extension and criteria that Congress should consider. I think one of the first tests that Congress should apply can be answered with a simple yes or no question. Is NASA prepared to operate a robust research program through 2024? And in my opinion, the answer is an unqualified yes, exclamation point. Absolutely. The transformation of this organization in the past five years has been nothing short of remarkable in the life and physical sciences. I've provided seven examples of that in my written testimony. But there are large knowledge gaps for Mars missions that will be one year or longer. The IG recently reported on this topic, and there are four areas where I'd like to see the report go a little bit further. First, the IG found that extension to 2024 wouldn't provide enough time to mitigate 13 human health risks for a Mars mission. I'm not quite prepared to accept that conclusion. There's simply too many degrees of freedom to establish useful risk criteria at this point in time. These risks need the context provided by a thorough task analysis of future Martian operations.    Second, the report didn't address powered down mass to any great extent, and we may need powered sample return for additional research tasks.    Third, the IG emphasized average crew time as a metric to quantify research utility. It's a good metric, but I'm not sure it goes far enough. I think we need to work on the concept of efficiency and evaluate and improve the efficiency of the research time we have.    And finally, the IG noted that research time is constrained with a six-person crew. We need that seventh member.    So my top recommendations are the following: Prioritize the programmatic goals, review the essential resources for extended mammalian research, including that seventh crew member, a scientist astronaut whose nominal responsibility is research, and finally to extend biological experiments to cover a substantial portion of mammalian life cycle and incorporate Martian gravity equivalents wherever possible. Given those sufficient resources, I am very optimistic that NASA can deliver another decade of rigorous translational research.    I sincerely thank you for your support of the program and the opportunity to appear.</t>
   </si>
   <si>
@@ -175,9 +154,6 @@
     <t>412395</t>
   </si>
   <si>
-    <t>Mo Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brooks. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -247,9 +223,6 @@
     <t>412512</t>
   </si>
   <si>
-    <t>Ami Bera</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bera. Thank you, Mr. Chairman, and I thank the Ranking Member for this hearing. As a child growing up in Southern California in the aerospace industry in the '60s and early '70s, it was remarkable what we could accomplish as Americans when we dreamt big. And when we think about the International Space Station, it really, truly is an engineering marvel, something that over time has, as the witnesses have noted, 15 years of uninterrupted humans living in space. Remarkable.    When we think about this and when we think about where we want to go, we have to continue to think big as a nation. We have to not be afraid of thinking and addressing the issues, particularly as we dream about human space travel to Mars. We don't know how we're going to get there, but that should not daunt us and that should not stop us, and that should not stop us from making the investments that allow us to continue to incrementally dream big.    Again, that is what we've done throughout our existence as human beings. We've not been afraid to explore. We've not been afraid to ask those questions, and certainly this body has a responsibility to continue to push for the next generation of discovery.    That said, we increasingly move to this coordinated role between what the public invests in partnership with commercialization of space. The last few months have been a bit concerning. We've been fortunate that the accidents did not have human beings on there and only cargo. But as we look at this partnership of commercialization and human space travel and taking human beings to the Space Station and beyond, it is a bit worrisome.    My question, let me direct it to Mr. Martin. In light of these recent accidents and the investigation of these accidents, could you elaborate and maybe expand on NASA's role in making sure there's a transparent investigation? I mean there is some concern if just the commercial entities are investigating without NASA's role.</t>
   </si>
   <si>
@@ -277,9 +250,6 @@
     <t>412309</t>
   </si>
   <si>
-    <t>Bill Posey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Posey. I thank you, Mr. Chairman. Mr. Gerstenmaier, we know that planning for the ISS began 20 years before it was actualized, and now we're less than ten years out from the administration's proposed extension to 2024. Does NASA have plans for some sort of station in low Earth orbit beyond 2024, perhaps some sort of public/private partnerships? Perhaps there are current international partners for an ISS replacement? Or does NASA intend to leave any LEO station entirely to commercial companies?</t>
   </si>
   <si>
@@ -307,9 +277,6 @@
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman. Mr. Gerstenmaier, on the one hand we've had the three unfortunate losses that have been previously mentioned. On the other hand, it seems that our commercial space industry is getting ready to grow exponentially, adding great value to our economy and our civilization of the new satellites, internet, space tours of even Mars are talked about.    Can you help us put these accidents in the proper perspective, especially compared to train and airline and automobile accidents, 30,000 deaths last year, by the way, NASA tragedies and all the transportation accidents in history? Are we looking at the relatively two or three that have come up in the right perspective compared to the last 150 years?</t>
   </si>
   <si>
@@ -337,9 +304,6 @@
     <t>412567</t>
   </si>
   <si>
-    <t>Jim Bridenstine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman, and thank you to all of our panelists for coming and testifying before this Committee. Mr. Gerstenmaier, I appreciate your long and distinguished service at NASA going back to negotiating with the Russians on the Mir program and other things in the '90s, and that's really where I'd like to start today. When you think about right now, given the recent accidents that we've gone through, we are seeing how important our reliance is on things like the Russian Progress cargo spacecraft and of course the Russian Soyuz crew spacecraft. Given how the relationship has changed between the United States and Russia, and we've even heard that, you know, the Russians have talked about pulling out of the International Space Station, what is your judgment on how this relation can go forward? How is it going on the civil space side given the strained relations in other areas? Can you share with us your opinion on that?</t>
   </si>
   <si>
@@ -373,9 +337,6 @@
     <t>412192</t>
   </si>
   <si>
-    <t>Ed Perlmutter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perlmutter. Thanks, Mr. Chairman, and thank you to the panelists. Mr. Administrator, it's good to see you. Some days you're here after we've had successes. Some days you're here after we've had some disappointments but appreciate the fact that we just keep moving forward. And it's not easy. You know, this is a risky business that you all are in, and we recognize that. And we don't want to have many disappointments. We want to have mostly successes.    And I became more comfortable in understanding the kind of oversight that goes with the contractor-led investigation process, that in fact you are very involved and that there has to be some kind of sign-off as part of all of this because, oftentimes we have everybody looking over everybody else's shoulder. This seems to be a pretty sensible way to approach it, and I appreciate that.    My questions are generally for you, Dr. Pawelczyk, and for you, Ms. Oakley, just really on what our research is doing on the Space Station that will help us as we move forward to sending our astronauts to Mars and for you so we have the researcher and the futurist, if you will, sitting next to the one who has to figure out how do you pay for it and what's the return.    So I'd like to have you answer. Just generally, how do you see the Space Station advancing our goal of going to Mars? And I'd like to ask you, Ms. Oakley, what do you see in terms of the cost and the benefits from an accountant's point of view? So I'll just turn it over to you two.</t>
   </si>
   <si>
@@ -415,9 +376,6 @@
     <t>412614</t>
   </si>
   <si>
-    <t>Stephen Knight</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chair. Just a couple of questions. Mr. Gerstenmaier, as a police officer who does investigations on accidents, we have seen a big change in our accident investigation over the last 50 years. I would expect to have seen a big change in investigations over space problems over the last 60 years.    It hasn't been easy going to space in the 1960s. It isn't easy today. Can you give me an idea of how investigations go today and how we can either move through the process, making sure that we're going through and hitting the points and making sure that we're becoming safer as we move through the investigation, but also making sure we can go quicker because the faster we can move, the faster we can do more of this.</t>
   </si>
   <si>
@@ -458,9 +416,6 @@
   </si>
   <si>
     <t>400343</t>
-  </si>
-  <si>
-    <t>Dana Rohrabacher</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman. And I remember when the Space Station was first approved. It only won by one vote in this Committee, one vote. Boy, I'm glad I voted for it. Don't disappoint me. Don't disappoint me now.    Does anyone here know the level of CO&lt;INF&gt;2&lt;/INF&gt; that is in the atmosphere of the Space Station? You have an internal atmosphere. What element do we put CO&lt;INF&gt;2&lt;/INF&gt; in? There's a lot of talk about CO&lt;INF&gt;2&lt;/INF&gt; in the planet now. What does CO&lt;INF&gt;2&lt;/INF&gt; do in the Space Station?</t>
@@ -901,11 +856,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -927,11 +880,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -951,13 +902,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -979,11 +928,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1005,11 +952,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1029,13 +974,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1057,11 +1000,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1081,13 +1022,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1109,11 +1048,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1133,13 +1070,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1161,11 +1096,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1185,13 +1118,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1213,11 +1144,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1237,13 +1166,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1265,11 +1192,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1289,13 +1214,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1317,11 +1240,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1341,13 +1262,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1369,11 +1288,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1393,13 +1310,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1421,11 +1336,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1445,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1473,11 +1384,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1497,13 +1406,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1523,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1549,13 +1454,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1575,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1601,13 +1502,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1627,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1653,13 +1550,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1681,11 +1576,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1705,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1733,11 +1624,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1757,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1783,13 +1670,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1809,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1835,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1861,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
         <v>52</v>
-      </c>
-      <c r="G39" t="s">
-        <v>53</v>
-      </c>
-      <c r="H39" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1887,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1913,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1939,13 +1814,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1965,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1991,13 +1862,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2017,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2043,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2069,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2095,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2121,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
-      </c>
-      <c r="G49" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2147,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2173,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
-      </c>
-      <c r="G51" t="s">
-        <v>53</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2201,11 +2056,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2227,11 +2080,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2253,11 +2104,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2277,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>76</v>
-      </c>
-      <c r="G55" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2303,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2329,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>76</v>
-      </c>
-      <c r="G57" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2355,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2381,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>76</v>
-      </c>
-      <c r="G59" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2407,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2433,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>76</v>
-      </c>
-      <c r="G61" t="s">
-        <v>77</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2461,11 +2296,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2485,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>86</v>
-      </c>
-      <c r="G63" t="s">
-        <v>87</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2511,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2537,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>86</v>
-      </c>
-      <c r="G65" t="s">
-        <v>87</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2563,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2589,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>86</v>
-      </c>
-      <c r="G67" t="s">
-        <v>87</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2615,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2641,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
-      </c>
-      <c r="G69" t="s">
-        <v>87</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2669,11 +2488,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2693,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>96</v>
-      </c>
-      <c r="G71" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2719,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2745,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>96</v>
-      </c>
-      <c r="G73" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2771,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2797,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>96</v>
-      </c>
-      <c r="G75" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2823,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2849,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>96</v>
-      </c>
-      <c r="G77" t="s">
-        <v>97</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2877,11 +2680,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2901,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>106</v>
-      </c>
-      <c r="G79" t="s">
-        <v>107</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2927,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2953,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>106</v>
-      </c>
-      <c r="G81" t="s">
-        <v>107</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2979,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3005,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>106</v>
-      </c>
-      <c r="G83" t="s">
-        <v>107</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3031,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3057,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>106</v>
-      </c>
-      <c r="G85" t="s">
-        <v>107</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3083,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3109,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>106</v>
-      </c>
-      <c r="G87" t="s">
-        <v>107</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3137,11 +2920,9 @@
       <c r="F88" t="s">
         <v>11</v>
       </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3161,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>118</v>
-      </c>
-      <c r="G89" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3187,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3213,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>118</v>
-      </c>
-      <c r="G91" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3239,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3265,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>118</v>
-      </c>
-      <c r="G93" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3291,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3317,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>118</v>
-      </c>
-      <c r="G95" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3343,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" t="s">
-        <v>30</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3369,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>118</v>
-      </c>
-      <c r="G97" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3395,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" t="s">
-        <v>27</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3421,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
-      </c>
-      <c r="G99" t="s">
-        <v>119</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3449,11 +3208,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3473,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>132</v>
-      </c>
-      <c r="G101" t="s">
-        <v>133</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3499,13 +3254,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3525,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>132</v>
-      </c>
-      <c r="G103" t="s">
-        <v>133</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3551,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3577,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>132</v>
-      </c>
-      <c r="G105" t="s">
-        <v>133</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3603,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3629,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>132</v>
-      </c>
-      <c r="G107" t="s">
-        <v>133</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3657,11 +3400,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3681,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3707,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
-      </c>
-      <c r="G110" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3733,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3759,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3787,11 +3520,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3811,13 +3542,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>147</v>
-      </c>
-      <c r="G114" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3837,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3863,13 +3590,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>147</v>
-      </c>
-      <c r="G116" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3889,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
-      </c>
-      <c r="G117" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3915,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>147</v>
-      </c>
-      <c r="G118" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3941,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3967,13 +3686,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>147</v>
-      </c>
-      <c r="G120" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3993,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4019,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>147</v>
-      </c>
-      <c r="G122" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4045,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4071,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>147</v>
-      </c>
-      <c r="G124" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4097,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4123,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>147</v>
-      </c>
-      <c r="G126" t="s">
-        <v>148</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4151,11 +3856,9 @@
       <c r="F127" t="s">
         <v>11</v>
       </c>
-      <c r="G127" t="s">
-        <v>12</v>
-      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97570.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97570.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412655</t>
   </si>
   <si>
+    <t>Babin</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Babin. The Subommittee on Space will come to order. Without objection, the Chair is authorized to declare recesses of the Subcommittee at any time. Good morning. Welcome to today's hearing titled The International Space Station: Addressing Operational Challenges. In front of you are packets containing the written testimony, biographies, and Truth in Testimony disclosures for today's witnesses. I recognize myself for five minutes for an opening statement.    Good morning. I'd like to welcome everyone to our hearing today, and I want to thank our witnesses for taking time to appear before our Committee. Since 2013, the ISS program has experienced a number of challenges. As a can-do nation, America has always been committed to identifying challenges, addressing them, and advancing to reach out and reach our goal and destiny. We have that same commitment with the ISS. During this time, astronauts have experienced water leaks in their suits three times, with one incident occurring during a spacewalk. On April the 26th, 2013, an unmanned Russian Progress cargo vehicle damaged a laser radar reflector when docking with the ISS. On January the 14th, 2015, a false alarm of an ammonia leak caused the crew to retreat into the Russian segment. On October 28th, 2014, an Orbital Sciences unmanned cargo launch failed just after launch. On April the 28th, 2015, a separate Russian Progress cargo vehicle failed to reach the ISS. On June the 7th, 2015, a planned re-boost of the ISS using a docked Progress vehicle failed but eventually was successful after troubleshooting. On June the 10th, 2015, a visiting Soyuz vehicle unexpectedly fired its engines without being commanded. Most recently, on June the 28th, 2015, a SpaceX unmanned cargo launch failed as well.    All of these incidents highlight the challenges of operating in space, and they remind us that NASA's contractors, engineers, and astronauts must be ever vigilant. These events have challenged ISS operations, but the fact that the program was able to effectively respond to these set-backs is a testament to NASA, the ISS partners, and the contractors. We do not know the root causes of some of the accidents yet, but once we have more information, we will be better suited to review those individual events. In the meantime, this hearing allows us to evaluate the operational status of the ISS, review efforts to utilize the unique asset, and assess the prospects for future operations.    The ISS is one of the most complex and expensive man-made objects ever built. The American taxpayers currently invest approximately $3 billion dollars per year in this laboratory. We must ensure that every dollar is spent effectively and efficiently. The ISS offers a unique microgravity environment for scientists and engineers to utilize. NASA recently released its Benefits to Humanity publication this week detailing the many benefits that ISS provides back to our lives here on Earth. From advances in our understanding of human health and performance to our use of new materials to the utilization of robotics and satellites, the benefits we receive from ISS are many and diverse and remarkable.    In addition to the benefits here on Earth the ISS offers the conditions necessary to prepare and develop critical technologies for deep space and long-duration human spaceflight missions. Successive NASA authorizations direct the administration to utilize the ISS for this purpose. The Human Research Program and Advanced Exploration Systems Program at NASA are on the cutting edge of developing the systems we need to send humans ever deeper into the Solar System than ever before. Right now, Captain Scott Kelly is on day 104 of his year-long mission to study the effects of long-duration human spaceflight.    In addition to the utilization efforts of NASA's research programs, the NASA Authorization Act of 2005 designated part of the ISS as a National Lab and the NASA Authorization Act of 2010 directed the administration to sign a cooperative agreement with a non-profit to manage it. NASA selected the Center for the Advancement of Science in Space, or CASIS, to lead this effort. The Government Accountability Office noted in a recent report that CASIS had made great strides in fulfilling the mandate under the law but that more work needed to be done to ensure that measurable progress was being made in a quantifiable manner. I hope to hear from NASA today that the agency is making progress towards answering this recommendation from GAO.    As we keep an eye on the present operation and utilization of the ISS, we must also look to the future. Last year the administration announced support for the extension of the ISS program from 2020 to 2024. At present, federal law limits the life of the ISS to 2020. Absent action from Congress to extend it, the administration would be required to begin closeout of the program.    There are many questions about the request for this extension. The bipartisan, House-passed NASA Authorization Act of 2015 requires the administration to provide a report to Congress on efforts by the administration to utilize the ISS and how to quantify benefits back to the nation for the required investment for this extension. It also requires the Administration to develop a government-wide utilization plan for the ISS to ensure that every minute the facility is in orbit we are doing what we can to get the most out of it. These reports are critical for Congress to understand the issues that inform whether to extend the ISS.    This Committee has a responsibility to ensure that the American taxpayers are getting all that they can from every dollar they send to the federal government. I believe this investment is worthwhile and that the benefits far outweigh the cost. Support for the ISS and its operations and utilization is not a partisan issue. It is an American issue, and I look forward to working with my friends on the other side of the aisle and our partners in the space industry to understand how we can all meet the operational challenges facing the ISS program.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412263</t>
   </si>
   <si>
+    <t>Edwards</t>
+  </si>
+  <si>
+    <t>Donna</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Edwards. Thank you very much, Mr. Chairman, and good morning. Welcome to our distinguished panel of witnesses. I appreciate holding this hearing now, The International Space Station: Addressing Operational Challenges, and as I listened to the Chairman, I'm reminded that the challenges that NASA faces and the agency faces in operating the International Space Station, I would be more concerned if we weren't able to overcome some of those challenges, and I think it's a credit to the crew and the partners that that is true.    About a year ago, I and the members of our Committee sat in this room, looked on the screen there, and had the opportunity to communicate with our NASA crew that was aboard the International Space Station, including NASA astronaut Rick Wiseman who's from Maryland. I would note that I promised him crab cakes, and unfortunately one of those accidents that the Chairman referred to destroyed my crab cake delivery. But Rick Wiseman visited with me in my office just a couple of weeks ago and we made okay on that.    What happens when you connect real-time with our astronauts who are living, working, and carrying out research in this amazing laboratory that's orbiting 250 miles above us every 90 minutes is really quite an inspiration.    Thanks to NASA, the crews aboard the ISS, and so many school children have also had the opportunity to ask questions and learn about human spaceflight through similar downlink events that we experienced here in this room. Yet, in the thrill of seeing and hearing those who inhabit our on-orbit laboratory, we can sometimes forget just how difficult, demanding, and risky it is to maintain and operate the International Space Station, because sometimes we think it's just ordinary, and it turns out that it's rather extraordinary. Orbital debris, malfunctions to key systems both internal and external to the ISS, and human health hazards pose significant risks to the ISS facility and its crew. The unfortunate loss of the SpaceX-7 cargo resupply mission less than two weeks ago, along with the earlier losses of the Russian Progress and Orbital ATK cargo missions over the past eight months, are again stark reminders of the risks and challenges that NASA and its partners have to face.    The successful management of these risks for more than 15 years is a testament to NASA and its industry and to international partners.    I am confident that SpaceX, Orbital ATK, in collaboration with the FAA and NASA, will identify and resolve the problems that led to the launch failures and will resume cargo resupply to the ISS as soon as it's safe to do so. And in fact, the ISS actually has been resupplied through its partners.    Mr. Chairman, we don't have any time to spare. The ISS is a temporary facility. It's currently authorized for operations as you've described through 2020, and given that the operations cost about $3 billion in taxpayer dollars every year, a cost that is actually projected to increase, coupled with the challenges involved in sustaining operations, we really need to ensure that our vision for the ISS is clear and our goals and objectives for using this unique facility are aligned with that vision.    I'm pleased that the number of ISS users has actually grown. We've had concerns about that raised here in this Committee. In addition to NASA researchers and NASA-supported academic researchers, the ISS National Laboratory management entity, CASIS, has drawn new commercial users including pharmaceutical companies to the ISS.    However, while the range of ISS uses is expanding, the resources to support those activities are not. Funding for the ISS research represents a mere 12 percent of the overall ISS budget. In addition, constraints on cargo transportation to the International Space Station, as well as available power and precious crew time, limit what research can be accomplished at the Station.    And in that regard, I know that many of us want to understand the implications of cargo resupply interruptions on planned ISS research, crew operations, and the sustainability of the Station.    In addition, Mr. Chairman, there's critical work to be done on the ISS in the areas of human health research and technology development that needs to be carried out if we are going to make progress toward the long-term goal of sending humans to Mars.    In January 2014 the Obama Administration proposed to extend ISS operations until at least the year 2024. The Administration has three rationales for the extension: to complete ISS research that supports long-duration human missions beyond low-Earth orbit; to garner societal benefits from ISS research, some of which we see here; and to give NASA and private partners more time to transition to commercial cargo and crew, allowing NASA to focus on human exploration of deep space.    Today's hearing provides us the opportunity to examine those rationales in the context of the cost and risks that NASA and its international partners will face in sustaining the ISS for that length of time.    So Mr. Chairman, we have a lot to discuss this morning, and I want to thank our witnesses again for being here and with that I yield back.</t>
   </si>
   <si>
@@ -73,30 +88,45 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Gerstenmaier</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gerstenmaier. Thank you, Mr. Chairman, and thank you for the opportunity to testify on behalf of myself and the men and women that work on the International Space Station. This is one of the most talented and dedicated international teams in the world. The ISS is an amazing research facility. Today on the ISS during this expedition, there are 329 research investigations in progress. These span topics from human research into how the human body performs in microgravity, basic biology, and biotechnology, physical science, Earth and space science, technology development, and education. There's never been this scope of research performed on a continuous basis in space.    We are also in the midst of a one-year crew expedition. This mission will give us detailed information into the human adaptation to the space environment with mission durations approximately equal to the Mars transit time. We will also get a unique chance through the twins study to see how the human genome changes when exposed to microgravity. We have kept a continual crew presence on the ISS for almost 15 years. Eighty-three countries from around the world have used the ISS for research. Further, private companies through the National Laboratory and the Center for the Advancement of Science and Space have used the ISS.    This week in Boston there was an ISS users conference. This is an exciting time as many new researchers are beginning to see the advantages of space-based research to augment their terrestrial investigations. The growth of non-NASA research is exciting and shows that there's a generic interest in using the unique properties of space to investigate basic research opportunities typically only done on the Earth.    Space provides a unique window into any physical process that is affected by gravity. Further, the human body reacts in space with many conditions that mimic conditions facing the elderly: bone loss, muscle wasting, immune system degradation, and balance problems. Using animal models, unique insight, and potential new treatments for the elderly can be developed based on Space Station research.    As the Chairman stated earlier, operating under frontier of space is not easy. In the past nine months, three independent cargo vehicles were lost on the way to the ISS. This graphically shows the difficulty of living and operating in space. The lost vehicles have different designs, different heritages, different manufacturing, different build processes, and utilize different ascent trajectories. The failure of these three systems shows the difficulty of launching and operating in space.    We often think that ISS is only 250 miles away and that the journey is easy. This is not true. We are essentially operating these systems at the edge of our engineering capability. We also often think that if only we provide more insight and oversight, we can lower the risk of cargo delivery. Unfortunately, the demands required to escape Earth's gravity expose us to the same level of risk no matter how much insight we add. But the insight can give us insight and help us understand the designs to make sure that we can end up with better designs.    The right level of insight can reduce and find design errors. However, too much insight can distract the teams from working on and improving design. It's amazing that even after these three failures, the basic ISS operations were not impacted. This is attributed to the teams that manage and operate the ISS. They learned and are implementing the hard lessons from the Columbia tragedy where the ISS had to operate without the shuttle for several years. The consumables management processes and logistics resupply techniques learned are proving their worth. However, these failures are not without consequences. Several of the agency performance goals associated with research and cargo flights will not be met. The ISS program is reducing consumables margins on ISS to favor research. This will not be enough to recover the research impacts. The delay in the Soyuz crew flight, which was required to allow the teams to understand the Progress failure, required the ISS to operate with three crew for approximately three weeks longer than planned and will impact research crew hours. The impact of the loss also had real implications to students and researchers who lost cargo on the Orbital ATK-Cygnus flight only to lose the replacement and return-to-flight hardware again on the SpaceX flight. They suffered a double loss. The loss of the international docking adapter can be accommodated schedule-wise without impacting the crew program but will result in a dollar loss to ISS.    ISS is a phenomenal resource for the nation. The research being done on ISS can be done no place else. ISS can serve as an innovation accelerator for private entrepreneurs, help NASA prepare for journeys beyond low-Earth orbit, and benefits directly people on the Earth. Congressional support for ISS operations through at least 2024 would be a positive sign to the international partners and future users of ISS. Operating on the frontier is not easy, and we need to not get complacent and think ISS operations are routine or easy. They are not. The ISS team has done a great job of managing in a technically demanding environment. The ISS team will continue to look for ways to improve. The ISS teams need to be given flexibility to manage, and others need to understand the benefits of dissimilar redundancy and how it can be used to provide robustness. The benefits of ISS will take longer to be realized than most can envision, but the benefits of ISS will exceed the expectations of all involved.    I would also like to thank the Committee for their support to human spaceflight, especially the authorization activity associated with Commercial Crew, SLS, Orion, and ISS. I look forward to your questions. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Babin. Yes, sir. Thank you, Mr. Gerstenmaier. I'll now recognize Mr. Elbon for five minutes to present his testimony.</t>
   </si>
   <si>
+    <t>Elbon</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Elbon. Chairman Babin, Ranking Member Edwards, and Members of the Subcommittee, on behalf of The Boeing Company, thank you for the opportunity to testify today to provide an update on Boeing's role in the International Space Station. And Mr. Chairman, as one of your constituents, congratulations on your selection to lead this important Committee.    Boeing is extremely proud to have supported NASA in the design, integration and assembly of the ISS. As NASA's prime contractor, Boeing delivered the U.S. elements of the ISS and provided system integration for the stage-by-stage assembly on orbit of all U.S. and international elements. We continue in the ISS sustainment role today.    On November 2, the world will celebrate 15 years of continuous presence in space, human presence in space, with international crews living and working aboard the ISS. At a time when many decry a gap in America's space program as we transition from the Space Shuttle to commercial transportation, we who know ISS know that America and our partner nations are making advances in space every day.    The International Space Station has been recognized as the largest, most complex international scientific and engineering project in history and the world's largest endeavor in space to date. Ongoing improvements are making ISS even better.    The Station brought together hardware and software from 16 countries around the globe and 37 states and more than 10,000 suppliers in our country. About the size of an American football field, the ISS is larger than a six bedroom house and has the internal pressurized volume of a 747.    ISS is an engineering marvel, a beacon for international cooperation, and a shining example of what can be achieved through strong leadership and unity of purpose on behalf of humankind.    As NASA's contractor for sustaining engineering of the ISS, Boeing is responsible for maintaining the Station and ensuring the full availability of the unique research laboratory for NASA, international partners, other U.S. Government agencies and private companies. In performing this role, we continue to work with NASA to reduce the costs of sustaining the International Space Station.    Over the past ten years, we have reduced the cost of our sustainment role by more than 30 percent. These savings has enabled NASA to fund ISS improvements such as the NASA Docking System, the critical component supporting the increase in the number of commercial vehicles visiting the Station. These improvements help to keep ISS at peak efficiency today and provide a basis for continuing strong performance well into the future. With NASA, we recently completed a technical assessment of the useable life of major ISS hardware components. Our study indicates that the Station will be operable at least through 2028. Long-term viability of the Station is an important factor in continuing to attract researchers, who invest considerable time in preparing their experiments for operation in space.    The continuing on-orbit reliability of ISS and the improvements made to further enhance research capabilities are a boon to maximizing facility utilization. Our work on ISS enables many benefits and improvements both to enable continuing human space exploration and to improve the quality of life here on Earth.    ISS continues to be used for developing multiple technologies to support deep space exploration. NASA is developing highly reliable life support systems to address needs for future exploration habitation systems. The ISS is a test bed for learning how the body reacts to prolonged weightlessness and allows us to develop countermeasures now.    And we are learning self-sustainment skills, such as growing food in space and recycling water. All of these things are important to learn and understand before we explore farther into our solar system.    Research on ISS has led to numerous improvements on Earth, from the medical field, to Earth observations, to providing clean water in underdeveloped countries, to how we diagnose and treat patients in remote areas.    Over the past several years, I've had opportunity to interact with leaders in countries that are not engaged in the ISS or do not have a space program. Without exception, in every one of these conversations about space exploration, these leaders express a strong desire to be involved in space, and more specifically, the International Space Station. They see the value of ISS: to inspire their youth to pursue STEM education, to create economy-expanding high technology industries, and to provide a significant source of national pride. This fresh perspective from leaders outside Station international partnership recognizing the tremendous value of ISS serves as a strong reminder to U.S. leaders and to all who are charged with the care of this national asset and global resource. We must never take what we have in ISS for granted. We must ensure that the International Space Station is well-funded, meticulously maintained and operated, and fully utilized for meaningful, high-value research.    Thank you, and I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Babin. Thank you, Mr. Elbon. I now recognize Mr. Martin for five minutes to present his testimony.</t>
   </si>
   <si>
+    <t>Martin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Martin. Thank you for inviting us to be part of the discussion about NASA's challenges in operating and maximizing research on the International Space Station, a very timely topic in light of the loss of three cargo supply flights over the past eight months.    The Office of Inspector General has issued four reports related to the topic of today's hearing during the past two years, including reviews that examine NASA's plans to extend Station operations until 2024 and its contracts with private companies to fly cargo and eventually crew to Station. We have five more reviews related to this topic under way, including an examination of October's cargo resupply failure, NASA's efforts to manage health and behavioral risk for extended space exploration, and challenges to international cooperation in space.    Our audit from last September of NASA's plans to extend the ISS reported that the agency had identified no major obstacles to continued operations through 2024. However, we found NASA must address a series of technical challenges, including ensuring adequate power generation in light of degradation of the Station's solar arrays as well as a limited ability to transport large replacement parts to Station.    While NASA officials estimate an annual ISS budget of between $3 and $4 billion through 2024, we anticipate the cost may be higher. First, much of the projected increase is attributable to higher transportation costs, and we found NASA's estimates for cargo and crew transportation optimistic.    Second, most of the agency's international partners have yet to commit to Station operations beyond 2020, and a decision by one or more not to participate could drive up costs for NASA. As noted in our report, the number one operational risk for the ISS program is ensuring the ability to deliver supplies and astronauts to Station. While NASA is working with two commercial cargo providers for redundancy, flights by Orbital and SpaceX are now on hold pending the outcome of accident investigations and approvals from the FAA and NASA.    In addition to the loss of important supplies, the failed cargo flights have affected NASA research aboard Station in at least three ways: number one, by reducing available crew time due to a temporary delay in returning the Station's crew complement to six astronauts; number two, by increasing cost to replace the lost research; and number three, by delaying return of experiments due to the suspension of flights by SpaceX, the only company capable of bringing cargo back to Earth.    Because NASA uses the ISS as a research platform to study a variety of risks associated with human travel and long-term habitation in space, it is an important part of its plans to send humans beyond low-Earth orbit. As we have reported in the past, utilization of the ISS for research has increased over the years, but several factors continue to limit its full potential. For example, until a seventh astronaut is brought aboard the Station, NASA will not be in a position to maximize crew time devoted to research. In addition, on-board crew will soon devote substantial time to reconfiguring the ISS to accommodate the commercial vehicles NASA hopes will transport astronauts beginning in 2017. To that point, late last year, NASA awarded $6.8 billion in contracts to Boeing and SpaceX to complete development of their spaceflight systems for crew. But NASA's Commercial Crew Program faces several significant hurdles, including unstable funding, the need to provide timely requirements and certification guidance to contractors, and coordination issues with other federal agencies. Given its importance, the OIG recently initiated a follow-up audit to review the status of NASA's Commercial Crew Program.    And that concludes my prepared remarks. Thank you, sir.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Babin. Thank you, Mr. Martin. And I now recognize Ms. Oakley for five minutes to present her testimony.</t>
   </si>
   <si>
+    <t>Oakley</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Oakley. Good morning, Chairman Babin, Ranking Member Edwards, and Ranking Member Johnson and Members of the Subcommittee. Thank you for inviting me here today to discuss GAO's work on NASA's management of the International Space Station.    As you know, the United States has spent tens of billions of dollars to develop, assemble, and operate the Space Station over the last two decades. The United States could spend billions more in coming years to further capitalize on the investment, given the potential extension of operations to 2024. Today I will discuss three areas: First, NASA's budget for ISS; second, some challenges that could affect increased use of ISS; and finally, steps that NASA and CASIS could take to better document and assess progress in this regard.    NASA continues to make a significant investment in ISS each year. This investment is projected to increase over the next five years mainly because the ISS program will begin to fund commercial crew flights. In 2020, transportation costs will be over 55 percent of the projected $4 billion ISS budget. Unlike transportation costs, costs to operate and conduct research on ISS are projected to remain relatively stable through 2020. NASA officials have indicated that the funding priorities for ISS are crew safety and transportation, maintaining the facility, and finally research. As a result, any increases to transportation costs or operations costs could diminish available funding for research. Furthermore, the potential increases to the ISS budget as a result of the planned extension to 2024 are currently unknown.    Second, NASA and CASIS face several challenges that could negatively affect their efforts to increase use of ISS for science including cargo transportation failures and delays, limited progress in raising additional funding for research, and increased demand for crew time and facilities.    Recent mishaps of the commercial cargo vehicles have had a direct impact on both CASIS and NASA efforts to increase research on ISS. For example, launch failures and delays have already resulted in the loss of CASIS-sponsored research and increased costs by almost $500,000, and let's not forget your crab cakes, Ms. Edwards. Furthermore, additional increases are likely as a result of the most recent failure.    For CASIS, absorbing these increases has and could continue to be challenging because it has thus far made limited progress raising additional funds for science from external sources. For example, in 2014, CASIS had only received a little over $9,000 in contributions. However, CASIS has seen an increase in commitments from external donors. Specifically, in 2014, it received commitments of over $12 million.    CASIS also faces challenges with competition for available crew time and a heavy demand for key facilities which limits the amount and types of experiments that CASIS can bring to ISS. Crew time is already allocated at or over 100 percent. To address this challenge, NASA and CASIS are dependent on commercial crew providers delivering promised capabilities as planned in 2017. With these capabilities, NASA will be able to add a crew member to ISS who will devote most of his or her time to research, effectively doubling research time.    However, many technical challenges and NASA's ability to fund the Commercial Crew Program could delay these efforts. Finally, even if NASA and CASIS can effectively navigate these challenges, demonstrating a return on investment is very difficult in scientific research and can oftentimes take many years.    In the short term, it is essential that CASIS continues to make progress promoting research and achieving its goal of increased use of ISS.    We reported in April that NASA and CASIS could do more to objectively define, assess, and report on such progress, for example, by assigning measurable targets or goals to its annual performance metrics. NASA and CASIS concurred and agreed to take action in response.    In conclusion, potential extension of ISS to 2024 will likely require significant continued investments. As a result, ensuring that ISS capabilities are being used to support significant scientific gains is critical. Furthermore, demonstrating and communicating the return on investment could help support NASA and CASIS in achieving their shared goal of developing sustained commercial markets in low-Earth orbit.    Chairman Babin, Ranking Member Edwards, and Members of the Subcommittee, this concludes my prepared remarks. I'm happy to take any questions that you have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Babin. Thank you, Ms. Oakley. Now I'd like to recognize Dr. Pawelczyk for five minutes to present his testimony.</t>
   </si>
   <si>
+    <t>Pawelczyk</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Pawelczyk. Thank you, Mr. Chairman, Members of the Subcommittee, good morning to you. I thank you for the opportunity to discuss the status of research using the International Space Station. It's the only platform of its kind, and it is absolutely essential to NASA's exploration goals.    To prepare for this hearing, you asked four specific questions, and I would like to briefly address each in the time allotted. You asked about opportunities and challenges. Well, the Augustine Commission emphasized three unique stressors that future astronauts will face: prolonged exposure to solar and galactic radiation; prolonged periods of exposure to microgravity; and confinement in close, relatively austere quarters. All of these stressors are present in the ISS environment. Martian operations add more stressors: a dusty, dim, environment and a gravitational field that is a little more than a third of our own. Unless we improve our centrifuge capabilities on the ISS--they are limited at the moment--we risk sending humans to Mars with little or no knowledge of how mammalian biology responds over years in a gravitational field less than Earth's.    Two challenges dominate the landscape, limited crew time and limited access to the ISS. We can reasonably anticipate that competition for time will become worse as the facility ages and demands to perform necessary maintenance become more acute.    Access is really a matter of competing programs. CASIS-sponsored research and peer-reviewed NASA-sponsored research vie for scarce resources. Better coordination between the two entities is needed.    You asked about critical areas of research. The National Research Council's Life and Physical Sciences Decadal Survey, which was completed in 2011 at Congress' request, summarized and sequenced 65 high-priority research tasks. Furthermore, the decadal study created two notional research plans, one with a goal of rebuilding a research enterprise and the other with a goal of a human mission to Mars. More about those goals in just a moment.    You asked about priorities. Well, prioritizing ISS research isn't a new concept. In fact, we've been working on that problem for close to 15 years. But the key question for prioritization isn't scientific, it's programmatic and it's something like this: Shall discovery research or fundamental research or translational research take precedence in the mature years of the ISS research program? The answer to that question has to be provided by government. Once those programmatic priorities are sequenced, can we prioritize the research? Absolutely. The LPS Decadal Survey provided a very detailed scheme and used eight unique criteria to do so.    The process for operations, you were curious about that, is well understood. CASIS receives its 50-percent allocation followed by human research, then technology demonstrations, and what resources remain are devoted to biology, physical sciences, and the Science Mission Directorate.    You asked about implications for extension and criteria that Congress should consider. I think one of the first tests that Congress should apply can be answered with a simple yes or no question. Is NASA prepared to operate a robust research program through 2024? And in my opinion, the answer is an unqualified yes, exclamation point. Absolutely. The transformation of this organization in the past five years has been nothing short of remarkable in the life and physical sciences. I've provided seven examples of that in my written testimony. But there are large knowledge gaps for Mars missions that will be one year or longer. The IG recently reported on this topic, and there are four areas where I'd like to see the report go a little bit further. First, the IG found that extension to 2024 wouldn't provide enough time to mitigate 13 human health risks for a Mars mission. I'm not quite prepared to accept that conclusion. There's simply too many degrees of freedom to establish useful risk criteria at this point in time. These risks need the context provided by a thorough task analysis of future Martian operations.    Second, the report didn't address powered down mass to any great extent, and we may need powered sample return for additional research tasks.    Third, the IG emphasized average crew time as a metric to quantify research utility. It's a good metric, but I'm not sure it goes far enough. I think we need to work on the concept of efficiency and evaluate and improve the efficiency of the research time we have.    And finally, the IG noted that research time is constrained with a six-person crew. We need that seventh member.    So my top recommendations are the following: Prioritize the programmatic goals, review the essential resources for extended mammalian research, including that seventh crew member, a scientist astronaut whose nominal responsibility is research, and finally to extend biological experiments to cover a substantial portion of mammalian life cycle and incorporate Martian gravity equivalents wherever possible. Given those sufficient resources, I am very optimistic that NASA can deliver another decade of rigorous translational research.    I sincerely thank you for your support of the program and the opportunity to appear.</t>
   </si>
   <si>
@@ -154,6 +184,12 @@
     <t>412395</t>
   </si>
   <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Brooks. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -223,6 +259,12 @@
     <t>412512</t>
   </si>
   <si>
+    <t>Bera</t>
+  </si>
+  <si>
+    <t>Ami</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bera. Thank you, Mr. Chairman, and I thank the Ranking Member for this hearing. As a child growing up in Southern California in the aerospace industry in the '60s and early '70s, it was remarkable what we could accomplish as Americans when we dreamt big. And when we think about the International Space Station, it really, truly is an engineering marvel, something that over time has, as the witnesses have noted, 15 years of uninterrupted humans living in space. Remarkable.    When we think about this and when we think about where we want to go, we have to continue to think big as a nation. We have to not be afraid of thinking and addressing the issues, particularly as we dream about human space travel to Mars. We don't know how we're going to get there, but that should not daunt us and that should not stop us, and that should not stop us from making the investments that allow us to continue to incrementally dream big.    Again, that is what we've done throughout our existence as human beings. We've not been afraid to explore. We've not been afraid to ask those questions, and certainly this body has a responsibility to continue to push for the next generation of discovery.    That said, we increasingly move to this coordinated role between what the public invests in partnership with commercialization of space. The last few months have been a bit concerning. We've been fortunate that the accidents did not have human beings on there and only cargo. But as we look at this partnership of commercialization and human space travel and taking human beings to the Space Station and beyond, it is a bit worrisome.    My question, let me direct it to Mr. Martin. In light of these recent accidents and the investigation of these accidents, could you elaborate and maybe expand on NASA's role in making sure there's a transparent investigation? I mean there is some concern if just the commercial entities are investigating without NASA's role.</t>
   </si>
   <si>
@@ -250,6 +292,12 @@
     <t>412309</t>
   </si>
   <si>
+    <t>Posey</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Posey. I thank you, Mr. Chairman. Mr. Gerstenmaier, we know that planning for the ISS began 20 years before it was actualized, and now we're less than ten years out from the administration's proposed extension to 2024. Does NASA have plans for some sort of station in low Earth orbit beyond 2024, perhaps some sort of public/private partnerships? Perhaps there are current international partners for an ISS replacement? Or does NASA intend to leave any LEO station entirely to commercial companies?</t>
   </si>
   <si>
@@ -277,6 +325,12 @@
     <t>412657</t>
   </si>
   <si>
+    <t>Beyer</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman. Mr. Gerstenmaier, on the one hand we've had the three unfortunate losses that have been previously mentioned. On the other hand, it seems that our commercial space industry is getting ready to grow exponentially, adding great value to our economy and our civilization of the new satellites, internet, space tours of even Mars are talked about.    Can you help us put these accidents in the proper perspective, especially compared to train and airline and automobile accidents, 30,000 deaths last year, by the way, NASA tragedies and all the transportation accidents in history? Are we looking at the relatively two or three that have come up in the right perspective compared to the last 150 years?</t>
   </si>
   <si>
@@ -304,6 +358,12 @@
     <t>412567</t>
   </si>
   <si>
+    <t>Bridenstine</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman, and thank you to all of our panelists for coming and testifying before this Committee. Mr. Gerstenmaier, I appreciate your long and distinguished service at NASA going back to negotiating with the Russians on the Mir program and other things in the '90s, and that's really where I'd like to start today. When you think about right now, given the recent accidents that we've gone through, we are seeing how important our reliance is on things like the Russian Progress cargo spacecraft and of course the Russian Soyuz crew spacecraft. Given how the relationship has changed between the United States and Russia, and we've even heard that, you know, the Russians have talked about pulling out of the International Space Station, what is your judgment on how this relation can go forward? How is it going on the civil space side given the strained relations in other areas? Can you share with us your opinion on that?</t>
   </si>
   <si>
@@ -337,6 +397,12 @@
     <t>412192</t>
   </si>
   <si>
+    <t>Perlmutter</t>
+  </si>
+  <si>
+    <t>Ed</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Perlmutter. Thanks, Mr. Chairman, and thank you to the panelists. Mr. Administrator, it's good to see you. Some days you're here after we've had successes. Some days you're here after we've had some disappointments but appreciate the fact that we just keep moving forward. And it's not easy. You know, this is a risky business that you all are in, and we recognize that. And we don't want to have many disappointments. We want to have mostly successes.    And I became more comfortable in understanding the kind of oversight that goes with the contractor-led investigation process, that in fact you are very involved and that there has to be some kind of sign-off as part of all of this because, oftentimes we have everybody looking over everybody else's shoulder. This seems to be a pretty sensible way to approach it, and I appreciate that.    My questions are generally for you, Dr. Pawelczyk, and for you, Ms. Oakley, just really on what our research is doing on the Space Station that will help us as we move forward to sending our astronauts to Mars and for you so we have the researcher and the futurist, if you will, sitting next to the one who has to figure out how do you pay for it and what's the return.    So I'd like to have you answer. Just generally, how do you see the Space Station advancing our goal of going to Mars? And I'd like to ask you, Ms. Oakley, what do you see in terms of the cost and the benefits from an accountant's point of view? So I'll just turn it over to you two.</t>
   </si>
   <si>
@@ -376,6 +442,12 @@
     <t>412614</t>
   </si>
   <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chair. Just a couple of questions. Mr. Gerstenmaier, as a police officer who does investigations on accidents, we have seen a big change in our accident investigation over the last 50 years. I would expect to have seen a big change in investigations over space problems over the last 60 years.    It hasn't been easy going to space in the 1960s. It isn't easy today. Can you give me an idea of how investigations go today and how we can either move through the process, making sure that we're going through and hitting the points and making sure that we're becoming safer as we move through the investigation, but also making sure we can go quicker because the faster we can move, the faster we can do more of this.</t>
   </si>
   <si>
@@ -416,6 +488,12 @@
   </si>
   <si>
     <t>400343</t>
+  </si>
+  <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman. And I remember when the Space Station was first approved. It only won by one vote in this Committee, one vote. Boy, I'm glad I voted for it. Don't disappoint me. Don't disappoint me now.    Does anyone here know the level of CO&lt;INF&gt;2&lt;/INF&gt; that is in the atmosphere of the Space Station? You have an internal atmosphere. What element do we put CO&lt;INF&gt;2&lt;/INF&gt; in? There's a lot of talk about CO&lt;INF&gt;2&lt;/INF&gt; in the planet now. What does CO&lt;INF&gt;2&lt;/INF&gt; do in the Space Station?</t>
@@ -806,7 +884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -814,7 +892,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,3029 +914,3560 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G33" t="s">
+        <v>56</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G39" t="s">
+        <v>56</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G41" t="s">
+        <v>56</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G43" t="s">
+        <v>56</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G45" t="s">
+        <v>56</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>45</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G47" t="s">
+        <v>56</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G49" t="s">
+        <v>56</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G51" t="s">
+        <v>56</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G55" t="s">
+        <v>81</v>
+      </c>
       <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G57" t="s">
+        <v>81</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G59" t="s">
+        <v>81</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>68</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>80</v>
+      </c>
+      <c r="G61" t="s">
+        <v>81</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>77</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G63" t="s">
+        <v>92</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>77</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G65" t="s">
+        <v>92</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G66" t="s">
+        <v>24</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>77</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G67" t="s">
+        <v>92</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>77</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="G69" t="s">
+        <v>92</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>86</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G71" t="s">
+        <v>103</v>
+      </c>
       <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>86</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G73" t="s">
+        <v>103</v>
+      </c>
       <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G74" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>86</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G75" t="s">
+        <v>103</v>
+      </c>
       <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G76" t="s">
+        <v>36</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>86</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G77" t="s">
+        <v>103</v>
+      </c>
       <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
       <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>95</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G79" t="s">
+        <v>114</v>
+      </c>
       <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G80" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>95</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G81" t="s">
+        <v>114</v>
+      </c>
       <c r="H81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G82" t="s">
+        <v>24</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>95</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G83" t="s">
+        <v>114</v>
+      </c>
       <c r="H83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>95</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G85" t="s">
+        <v>114</v>
+      </c>
       <c r="H85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>95</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G87" t="s">
+        <v>114</v>
+      </c>
       <c r="H87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G88" t="s">
+        <v>13</v>
+      </c>
       <c r="H88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>106</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G89" t="s">
+        <v>127</v>
+      </c>
       <c r="H89" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G90" t="s">
+        <v>36</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>106</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G91" t="s">
+        <v>127</v>
+      </c>
       <c r="H91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G92" t="s">
+        <v>36</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>106</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G93" t="s">
+        <v>127</v>
+      </c>
       <c r="H93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G94" t="s">
+        <v>33</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>106</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G95" t="s">
+        <v>127</v>
+      </c>
       <c r="H95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I95" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G96" t="s">
+        <v>33</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>106</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G97" t="s">
+        <v>127</v>
+      </c>
       <c r="H97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I97" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G98" t="s">
+        <v>30</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>106</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G99" t="s">
+        <v>127</v>
+      </c>
       <c r="H99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I99" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>119</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G101" t="s">
+        <v>142</v>
+      </c>
       <c r="H101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G102" t="s">
+        <v>24</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>119</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G103" t="s">
+        <v>142</v>
+      </c>
       <c r="H103" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I103" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G104" t="s">
+        <v>36</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>119</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G105" t="s">
+        <v>142</v>
+      </c>
       <c r="H105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I105" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G106" t="s">
+        <v>36</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>119</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>141</v>
+      </c>
+      <c r="G107" t="s">
+        <v>142</v>
+      </c>
       <c r="H107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>143</v>
+      </c>
+      <c r="I107" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
       <c r="H108" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G109" t="s">
+        <v>24</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G110" t="s">
+        <v>24</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G111" t="s">
+        <v>24</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s">
+        <v>24</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>133</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G114" t="s">
+        <v>158</v>
+      </c>
       <c r="H114" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I114" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G115" t="s">
+        <v>24</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>133</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G116" t="s">
+        <v>158</v>
+      </c>
       <c r="H116" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I116" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G117" t="s">
+        <v>24</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>133</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G118" t="s">
+        <v>158</v>
+      </c>
       <c r="H118" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I118" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G119" t="s">
+        <v>24</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>133</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G120" t="s">
+        <v>158</v>
+      </c>
       <c r="H120" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I120" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G121" t="s">
+        <v>24</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>133</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G122" t="s">
+        <v>158</v>
+      </c>
       <c r="H122" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I122" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G123" t="s">
+        <v>24</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>133</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G124" t="s">
+        <v>158</v>
+      </c>
       <c r="H124" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G125" t="s">
+        <v>24</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>133</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G126" t="s">
+        <v>158</v>
+      </c>
       <c r="H126" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I126" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>11</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G127" t="s">
+        <v>13</v>
+      </c>
       <c r="H127" t="s">
-        <v>147</v>
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97570.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97570.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412655</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Babin</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412263</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Edwards</t>
   </si>
   <si>
@@ -184,6 +193,9 @@
     <t>412395</t>
   </si>
   <si>
+    <t>Vice Chair</t>
+  </si>
+  <si>
     <t>Brooks</t>
   </si>
   <si>
@@ -257,6 +269,9 @@
   </si>
   <si>
     <t>412512</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Bera</t>
@@ -884,7 +899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -892,7 +907,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,3557 +932,3836 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G43" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H43" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G45" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H45" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s">
-        <v>24</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>27</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G47" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H47" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G49" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H49" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G51" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H51" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s">
-        <v>30</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G57" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" t="s">
-        <v>24</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G59" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I59" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G61" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G63" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H63" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" t="s">
-        <v>24</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>27</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G65" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H65" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I65" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s">
-        <v>24</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G67" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H67" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I67" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s">
-        <v>24</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G69" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G71" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="H71" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>27</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G73" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="H73" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" t="s">
-        <v>24</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G75" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="H75" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I75" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
-      </c>
-      <c r="G76" t="s">
-        <v>36</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>39</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G77" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I77" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G79" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="H79" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I79" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" t="s">
-        <v>24</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>27</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G81" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="H81" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I81" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J81" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="s">
-        <v>24</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>27</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G83" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="H83" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I83" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" t="s">
-        <v>27</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>30</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G85" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="H85" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I85" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" t="s">
-        <v>24</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G87" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I87" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I88" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G89" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="H89" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I89" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" t="s">
-        <v>36</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>39</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G91" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I91" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J91" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
-      </c>
-      <c r="G92" t="s">
-        <v>36</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>39</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G93" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="H93" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I93" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
-      </c>
-      <c r="G94" t="s">
-        <v>33</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>36</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G95" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="H95" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I95" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" t="s">
-        <v>33</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>36</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G97" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="H97" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I97" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J97" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" t="s">
-        <v>30</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>33</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G99" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="I99" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J99" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G101" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="H101" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I101" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J101" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" t="s">
-        <v>24</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>27</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G103" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="H103" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I103" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J103" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
-      </c>
-      <c r="G104" t="s">
-        <v>36</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>39</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G105" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="H105" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I105" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="106" spans="1:9">
+      <c r="J105" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" t="s">
-        <v>36</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>39</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G107" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="H107" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I107" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>148</v>
+      </c>
+      <c r="J107" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>23</v>
-      </c>
-      <c r="G109" t="s">
-        <v>24</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>27</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" t="s">
-        <v>24</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>27</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
-      </c>
-      <c r="G111" t="s">
-        <v>24</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>27</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
-      </c>
-      <c r="G112" t="s">
-        <v>24</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>27</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G114" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="H114" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I114" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J114" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" t="s">
-        <v>24</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>27</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G116" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="H116" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I116" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J116" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" t="s">
-        <v>24</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>27</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G118" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="H118" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I118" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="119" spans="1:9">
+      <c r="J118" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>23</v>
-      </c>
-      <c r="G119" t="s">
-        <v>24</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>27</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G120" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="H120" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I120" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J120" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>23</v>
-      </c>
-      <c r="G121" t="s">
-        <v>24</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>27</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G122" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="H122" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I122" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J122" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>23</v>
-      </c>
-      <c r="G123" t="s">
-        <v>24</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>27</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G124" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="H124" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I124" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J124" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>23</v>
-      </c>
-      <c r="G125" t="s">
-        <v>24</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>27</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G126" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="H126" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I126" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>164</v>
+      </c>
+      <c r="J126" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I127" t="s">
-        <v>173</v>
+        <v>16</v>
+      </c>
+      <c r="J127" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
